--- a/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,84; 20,05</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,82; 20,91</t>
+          <t>17,92; 21,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,72; 19,96</t>
+          <t>17,89; 19,99</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,35; 20,7</t>
+          <t>17,3; 20,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15,11; 17,93</t>
+          <t>15,08; 18,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 19,19</t>
+          <t>16,81; 19,17</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 23,5</t>
+          <t>19,79; 23,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 27,98</t>
+          <t>21,51; 27,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 24,0</t>
+          <t>20,74; 23,93</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,18; 21,76</t>
+          <t>19,36; 21,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,87; 23,38</t>
+          <t>18,88; 23,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,62; 22,59</t>
+          <t>19,6; 22,57</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,58; 24,67</t>
+          <t>20,61; 24,86</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>22,13; 26,09</t>
+          <t>22,3; 26,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 25,16</t>
+          <t>22,51; 25,1</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,58; 20,32</t>
+          <t>16,53; 20,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>25,24; 27,94</t>
+          <t>25,1; 27,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>23,64; 26,04</t>
+          <t>23,68; 26,1</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,63; 21,01</t>
+          <t>19,6; 20,99</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,81; 23,32</t>
+          <t>21,78; 23,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,0; 22,08</t>
+          <t>20,98; 22,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q04C1_2023-Clase-trans_orig.xlsx
@@ -796,7 +796,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
